--- a/codes/test_shell_output/testPRON_cat_2.xlsx
+++ b/codes/test_shell_output/testPRON_cat_2.xlsx
@@ -363,606 +363,606 @@
   <sheetData>
     <row r="5" spans="2:101">
       <c r="B5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="C5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="D5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="E5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="F5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="G5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="H5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="I5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="J5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="K5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="L5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="M5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="N5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="O5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="P5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="Q5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="R5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="S5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="T5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="U5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="V5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="W5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="X5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="Y5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="Z5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AA5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AB5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AC5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AD5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AE5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AF5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AG5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AH5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AI5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AJ5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AK5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AL5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AM5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AN5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AO5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AP5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AQ5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AR5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AS5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AT5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AU5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AV5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AW5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AX5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AY5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="AZ5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BA5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BB5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BC5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BD5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BE5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BF5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BG5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BH5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BI5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BJ5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BK5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BL5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BM5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BN5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BO5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BP5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BQ5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BR5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BS5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BT5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BU5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BV5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BW5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BX5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BY5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="BZ5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="CA5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="CB5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="CC5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="CD5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="CE5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="CF5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="CG5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="CH5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="CI5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="CJ5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="CK5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="CL5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="CM5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="CN5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="CO5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="CP5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="CQ5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="CR5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="CS5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="CT5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="CU5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="CV5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
       <c r="CW5">
-        <v>81.01265822784811</v>
+        <v>87.1875</v>
       </c>
     </row>
     <row r="9" spans="2:101">
       <c r="B9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="C9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="D9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="E9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="F9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="G9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="H9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="I9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="J9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="K9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="L9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="M9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="N9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="O9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="P9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="Q9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="R9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="S9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="T9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="U9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="V9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="W9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="X9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="Y9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="Z9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AA9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AB9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AC9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AD9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AE9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AF9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AG9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AH9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AI9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AJ9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AK9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AL9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AM9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AN9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AO9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AP9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AQ9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AR9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AS9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AT9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AU9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AV9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AW9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AX9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AY9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="AZ9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BA9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BB9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BC9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BD9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BE9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BF9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BG9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BH9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BI9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BJ9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BK9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BL9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BM9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BN9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BO9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BP9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BQ9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BR9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BS9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BT9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BU9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BV9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BW9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BX9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BY9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="BZ9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="CA9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="CB9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="CC9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="CD9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="CE9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="CF9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="CG9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="CH9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="CI9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="CJ9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="CK9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="CL9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="CM9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="CN9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="CO9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="CP9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="CQ9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="CR9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="CS9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="CT9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="CU9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="CV9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
       <c r="CW9">
-        <v>18.9873417721519</v>
+        <v>12.8125</v>
       </c>
     </row>
   </sheetData>

--- a/codes/test_shell_output/testPRON_cat_2.xlsx
+++ b/codes/test_shell_output/testPRON_cat_2.xlsx
@@ -363,606 +363,606 @@
   <sheetData>
     <row r="5" spans="2:101">
       <c r="B5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="C5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="D5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="E5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="F5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="G5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="H5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="I5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="J5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="K5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="L5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="M5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="N5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="O5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="P5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="Q5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="R5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="S5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="T5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="U5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="V5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="W5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="X5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="Y5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="Z5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AA5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AB5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AC5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AD5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AE5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AF5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AG5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AH5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AI5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AJ5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AK5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AL5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AM5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AN5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AO5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AP5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AQ5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AR5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AS5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AT5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AU5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AV5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AW5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AX5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AY5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="AZ5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BA5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BB5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BC5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BD5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BE5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BF5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BG5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BH5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BI5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BJ5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BK5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BL5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BM5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BN5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BO5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BP5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BQ5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BR5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BS5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BT5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BU5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BV5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BW5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BX5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BY5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="BZ5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="CA5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="CB5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="CC5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="CD5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="CE5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="CF5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="CG5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="CH5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="CI5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="CJ5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="CK5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="CL5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="CM5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="CN5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="CO5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="CP5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="CQ5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="CR5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="CS5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="CT5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="CU5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="CV5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
       <c r="CW5">
-        <v>87.1875</v>
+        <v>87.11864406779661</v>
       </c>
     </row>
     <row r="9" spans="2:101">
       <c r="B9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="C9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="D9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="E9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="F9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="G9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="H9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="I9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="J9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="K9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="L9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="M9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="N9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="O9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="P9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="Q9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="R9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="S9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="T9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="U9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="V9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="W9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="X9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="Y9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="Z9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AA9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AB9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AC9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AD9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AE9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AF9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AG9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AH9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AI9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AJ9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AK9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AL9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AM9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AN9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AO9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AP9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AQ9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AR9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AS9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AT9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AU9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AV9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AW9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AX9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AY9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="AZ9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BA9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BB9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BC9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BD9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BE9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BF9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BG9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BH9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BI9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BJ9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BK9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BL9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BM9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BN9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BO9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BP9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BQ9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BR9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BS9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BT9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BU9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BV9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BW9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BX9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BY9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="BZ9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="CA9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="CB9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="CC9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="CD9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="CE9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="CF9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="CG9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="CH9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="CI9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="CJ9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="CK9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="CL9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="CM9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="CN9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="CO9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="CP9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="CQ9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="CR9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="CS9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="CT9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="CU9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="CV9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
       <c r="CW9">
-        <v>12.8125</v>
+        <v>12.88135593220339</v>
       </c>
     </row>
   </sheetData>

--- a/codes/test_shell_output/testPRON_cat_2.xlsx
+++ b/codes/test_shell_output/testPRON_cat_2.xlsx
@@ -363,606 +363,606 @@
   <sheetData>
     <row r="5" spans="2:101">
       <c r="B5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="C5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="D5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="E5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="F5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="G5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="H5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="I5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="J5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="K5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="L5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="M5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="N5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="O5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="P5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="Q5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="R5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="S5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="T5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="U5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="V5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="W5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="X5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="Y5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="Z5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AA5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AB5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AC5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AD5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AE5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AF5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AG5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AH5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AI5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AJ5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AK5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AL5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AM5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AN5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AO5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AP5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AQ5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AR5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AS5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AT5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AU5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AV5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AW5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AX5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AY5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="AZ5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BA5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BB5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BC5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BD5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BE5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BF5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BG5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BH5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BI5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BJ5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BK5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BL5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BM5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BN5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BO5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BP5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BQ5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BR5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BS5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BT5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BU5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BV5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BW5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BX5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BY5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="BZ5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="CA5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="CB5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="CC5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="CD5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="CE5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="CF5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="CG5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="CH5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="CI5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="CJ5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="CK5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="CL5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="CM5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="CN5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="CO5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="CP5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="CQ5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="CR5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="CS5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="CT5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="CU5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="CV5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
       <c r="CW5">
-        <v>87.11864406779661</v>
+        <v>92.30769230769231</v>
       </c>
     </row>
     <row r="9" spans="2:101">
       <c r="B9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="C9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="D9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="E9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="F9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="G9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="H9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="I9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="J9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="K9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="M9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="N9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="O9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="P9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="Q9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="R9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="S9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="T9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="U9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="V9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="W9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="X9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="Y9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="Z9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AA9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AB9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AC9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AD9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AE9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AF9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AG9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AH9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AI9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AJ9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AK9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AL9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AM9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AN9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AO9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AP9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AQ9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AR9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AS9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AT9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AU9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AV9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AW9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AX9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AY9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="AZ9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BA9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BB9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BC9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BD9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BE9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BF9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BG9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BH9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BI9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BJ9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BK9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BL9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BM9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BN9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BO9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BP9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BQ9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BR9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BS9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BT9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BU9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BV9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BW9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BX9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BY9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="BZ9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CA9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CB9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CC9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CD9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CE9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CF9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CG9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CH9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CI9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CJ9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CK9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CL9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CM9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CN9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CO9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CP9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CQ9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CR9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CS9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CT9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CU9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CV9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="CW9">
-        <v>12.88135593220339</v>
+        <v>7.692307692307693</v>
       </c>
     </row>
   </sheetData>
